--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-medicationrequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4221" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4186" uniqueCount="676">
   <si>
     <t>Property</t>
   </si>
@@ -431,21 +431,21 @@
     <t>MedicationRequest.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -455,31 +455,7 @@
 ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>MedicationRequest.extension:preparation</t>
-  </si>
-  <si>
-    <t>preparation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDispense_Preparation}
-</t>
-  </si>
-  <si>
-    <t>調剤結果</t>
-  </si>
-  <si>
-    <t>薬剤単位の調剤結果</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>MedicationRequest.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
   </si>
   <si>
     <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
@@ -490,9 +466,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -524,6 +497,9 @@
 </t>
   </si>
   <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>Request.identifier</t>
   </si>
   <si>
@@ -582,10 +558,11 @@
     <t>MedicationRequest.identifier.extension</t>
   </si>
   <si>
-    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -1610,6 +1587,12 @@
     <t>MedicationRequest.dispenseRequest.extension</t>
   </si>
   <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
     <t>MedicationRequest.dispenseRequest.extension:instructionForDispense</t>
   </si>
   <si>
@@ -1624,6 +1607,10 @@
   </si>
   <si>
     <t>薬剤単位の調剤指示を格納する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.extension:expectedRepeatCount</t>
@@ -2454,7 +2441,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO113"/>
+  <dimension ref="A1:AO112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3454,7 +3441,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3473,15 +3460,17 @@
         <v>82</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>82</v>
@@ -3518,14 +3507,16 @@
         <v>82</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>140</v>
@@ -3549,7 +3540,7 @@
         <v>82</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>82</v>
@@ -3563,13 +3554,11 @@
         <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3582,22 +3571,26 @@
         <v>82</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>82</v>
       </c>
@@ -3645,7 +3638,7 @@
         <v>82</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3654,7 +3647,7 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>141</v>
@@ -3666,7 +3659,7 @@
         <v>82</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>82</v>
@@ -3677,18 +3670,18 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>81</v>
@@ -3697,13 +3690,13 @@
         <v>82</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>150</v>
@@ -3714,9 +3707,7 @@
       <c r="N11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="O11" t="s" s="2">
-        <v>153</v>
-      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>82</v>
       </c>
@@ -3752,19 +3743,17 @@
         <v>82</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3776,41 +3765,43 @@
         <v>82</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>82</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>82</v>
@@ -3822,16 +3813,16 @@
         <v>82</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3869,17 +3860,19 @@
         <v>82</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AC12" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD12" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3894,37 +3887,35 @@
         <v>102</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>90</v>
@@ -3939,17 +3930,15 @@
         <v>82</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M13" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>171</v>
-      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>82</v>
@@ -3998,34 +3987,34 @@
         <v>82</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>165</v>
+        <v>82</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>166</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
@@ -4037,14 +4026,14 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>82</v>
@@ -4056,15 +4045,17 @@
         <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L14" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N14" s="2"/>
+      <c r="N14" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>82</v>
@@ -4101,16 +4092,16 @@
         <v>82</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>177</v>
@@ -4119,13 +4110,13 @@
         <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>82</v>
@@ -4134,7 +4125,7 @@
         <v>82</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>82</v>
@@ -4145,44 +4136,46 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="N15" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>82</v>
       </c>
@@ -4206,43 +4199,43 @@
         <v>82</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>82</v>
+        <v>184</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>82</v>
@@ -4251,21 +4244,21 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4282,25 +4275,25 @@
         <v>82</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -4325,13 +4318,13 @@
         <v>82</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>82</v>
@@ -4349,7 +4342,7 @@
         <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4370,21 +4363,21 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>133</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4392,7 +4385,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>90</v>
@@ -4407,32 +4400,32 @@
         <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>198</v>
+        <v>104</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>82</v>
+        <v>208</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>82</v>
@@ -4444,13 +4437,13 @@
         <v>82</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>203</v>
+        <v>82</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>82</v>
@@ -4468,7 +4461,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4489,21 +4482,21 @@
         <v>82</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4526,32 +4519,30 @@
         <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>214</v>
+        <v>82</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>82</v>
@@ -4587,7 +4578,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4608,21 +4599,21 @@
         <v>82</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4630,7 +4621,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>90</v>
@@ -4645,17 +4636,15 @@
         <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4668,7 +4657,7 @@
         <v>82</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>224</v>
+        <v>82</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>82</v>
@@ -4704,7 +4693,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4725,21 +4714,21 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4762,15 +4751,17 @@
         <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>82</v>
@@ -4819,7 +4810,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4840,29 +4831,31 @@
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="D21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>90</v>
@@ -4874,19 +4867,19 @@
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>238</v>
+        <v>149</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4936,13 +4929,13 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>242</v>
+        <v>147</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>82</v>
@@ -4951,37 +4944,35 @@
         <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>243</v>
+        <v>157</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>244</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>90</v>
@@ -4996,17 +4987,15 @@
         <v>82</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>247</v>
+        <v>168</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -5055,53 +5044,53 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>165</v>
+        <v>82</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>166</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>173</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>82</v>
@@ -5113,15 +5102,17 @@
         <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -5158,16 +5149,16 @@
         <v>82</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>177</v>
@@ -5176,13 +5167,13 @@
         <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>82</v>
@@ -5191,7 +5182,7 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>82</v>
@@ -5202,44 +5193,46 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="N24" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
@@ -5263,43 +5256,43 @@
         <v>82</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>82</v>
+        <v>184</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>82</v>
@@ -5308,21 +5301,21 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5339,25 +5332,25 @@
         <v>82</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5382,13 +5375,13 @@
         <v>82</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>82</v>
@@ -5406,7 +5399,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5427,21 +5420,21 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>133</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5449,7 +5442,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>90</v>
@@ -5464,32 +5457,32 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>198</v>
+        <v>104</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>199</v>
+        <v>248</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>200</v>
+        <v>249</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>82</v>
+        <v>250</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>82</v>
+        <v>208</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>82</v>
@@ -5501,13 +5494,13 @@
         <v>82</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>203</v>
+        <v>82</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>82</v>
@@ -5525,7 +5518,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5546,21 +5539,21 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5583,32 +5576,30 @@
         <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>257</v>
+        <v>82</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>82</v>
@@ -5644,7 +5635,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5665,21 +5656,21 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5687,7 +5678,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>90</v>
@@ -5702,17 +5693,15 @@
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5725,7 +5714,7 @@
         <v>82</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>224</v>
+        <v>82</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>82</v>
@@ -5761,7 +5750,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5782,21 +5771,21 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5819,15 +5808,17 @@
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5876,7 +5867,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5897,23 +5888,25 @@
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="D30" t="s" s="2">
         <v>82</v>
       </c>
@@ -5931,19 +5924,19 @@
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>238</v>
+        <v>149</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5993,13 +5986,13 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>242</v>
+        <v>147</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>82</v>
@@ -6008,31 +6001,29 @@
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>243</v>
+        <v>157</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>244</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
         <v>82</v>
       </c>
@@ -6053,17 +6044,15 @@
         <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>265</v>
+        <v>168</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -6112,53 +6101,53 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>165</v>
+        <v>82</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>166</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>173</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>82</v>
@@ -6170,15 +6159,17 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>82</v>
@@ -6215,16 +6206,16 @@
         <v>82</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>177</v>
@@ -6233,13 +6224,13 @@
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>82</v>
@@ -6248,7 +6239,7 @@
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>82</v>
@@ -6259,44 +6250,46 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="N33" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
       </c>
@@ -6320,43 +6313,43 @@
         <v>82</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>82</v>
+        <v>184</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>82</v>
@@ -6365,21 +6358,21 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6396,25 +6389,25 @@
         <v>82</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6439,13 +6432,13 @@
         <v>82</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>82</v>
@@ -6463,7 +6456,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6484,21 +6477,21 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>133</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6506,7 +6499,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>90</v>
@@ -6521,32 +6514,32 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>198</v>
+        <v>104</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>199</v>
+        <v>266</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>200</v>
+        <v>267</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>82</v>
+        <v>268</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>82</v>
+        <v>208</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>82</v>
@@ -6558,13 +6551,13 @@
         <v>82</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>203</v>
+        <v>82</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>82</v>
@@ -6582,7 +6575,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6603,21 +6596,21 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6640,32 +6633,30 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>275</v>
+        <v>82</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>82</v>
@@ -6701,7 +6692,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6722,21 +6713,21 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6744,7 +6735,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>90</v>
@@ -6759,17 +6750,15 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>277</v>
+        <v>224</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6782,7 +6771,7 @@
         <v>82</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>224</v>
+        <v>82</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>82</v>
@@ -6818,7 +6807,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6839,21 +6828,21 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6876,15 +6865,17 @@
         <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6933,7 +6924,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6954,23 +6945,25 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="D39" t="s" s="2">
         <v>82</v>
       </c>
@@ -6979,7 +6972,7 @@
         <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>82</v>
@@ -6988,19 +6981,19 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>238</v>
+        <v>149</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -7050,13 +7043,13 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>242</v>
+        <v>147</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>82</v>
@@ -7065,31 +7058,29 @@
         <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>243</v>
+        <v>157</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>244</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
         <v>82</v>
       </c>
@@ -7098,7 +7089,7 @@
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>82</v>
@@ -7110,17 +7101,15 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>284</v>
+        <v>168</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -7169,53 +7158,53 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>165</v>
+        <v>82</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>166</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>173</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>82</v>
@@ -7227,15 +7216,17 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L41" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N41" s="2"/>
+      <c r="N41" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -7272,16 +7263,16 @@
         <v>82</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>177</v>
@@ -7290,13 +7281,13 @@
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>82</v>
@@ -7305,7 +7296,7 @@
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>82</v>
@@ -7316,44 +7307,46 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="N42" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
       </c>
@@ -7377,43 +7370,43 @@
         <v>82</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>82</v>
+        <v>184</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>82</v>
@@ -7422,21 +7415,21 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7453,25 +7446,25 @@
         <v>82</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7496,13 +7489,13 @@
         <v>82</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>82</v>
@@ -7520,7 +7513,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7541,21 +7534,21 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>133</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7563,7 +7556,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>90</v>
@@ -7578,32 +7571,32 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>198</v>
+        <v>104</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>199</v>
+        <v>266</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>200</v>
+        <v>267</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>82</v>
+        <v>284</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>82</v>
+        <v>208</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>82</v>
@@ -7615,13 +7608,13 @@
         <v>82</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>203</v>
+        <v>82</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>82</v>
@@ -7639,7 +7632,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7660,21 +7653,21 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7697,32 +7690,30 @@
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>291</v>
+        <v>82</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>82</v>
@@ -7758,7 +7749,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7779,21 +7770,21 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7801,7 +7792,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>90</v>
@@ -7816,17 +7807,15 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>277</v>
+        <v>224</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7839,7 +7828,7 @@
         <v>82</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>224</v>
+        <v>82</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>82</v>
@@ -7875,7 +7864,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7896,21 +7885,21 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7933,15 +7922,17 @@
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -7990,7 +7981,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8011,21 +8002,21 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>237</v>
+        <v>288</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8033,7 +8024,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>90</v>
@@ -8042,22 +8033,22 @@
         <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>238</v>
+        <v>110</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>239</v>
+        <v>289</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>241</v>
+        <v>291</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8083,13 +8074,13 @@
         <v>82</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>82</v>
+        <v>184</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>82</v>
+        <v>292</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>82</v>
+        <v>293</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>82</v>
@@ -8107,10 +8098,10 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>242</v>
+        <v>288</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>90</v>
@@ -8122,27 +8113,27 @@
         <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>82</v>
+        <v>294</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>82</v>
+        <v>295</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>82</v>
+        <v>297</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>244</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8150,7 +8141,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>90</v>
@@ -8159,22 +8150,22 @@
         <v>82</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8200,13 +8191,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>191</v>
+        <v>301</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -8224,10 +8215,10 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>90</v>
@@ -8239,16 +8230,16 @@
         <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>302</v>
+        <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8256,10 +8247,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8267,7 +8258,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>90</v>
@@ -8276,22 +8267,22 @@
         <v>82</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>198</v>
+        <v>110</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8317,13 +8308,13 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>308</v>
+        <v>184</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -8341,10 +8332,10 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>90</v>
@@ -8356,16 +8347,16 @@
         <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>82</v>
+        <v>314</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8373,10 +8364,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8384,31 +8375,31 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8434,13 +8425,11 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -8458,13 +8447,13 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>82</v>
@@ -8473,16 +8462,16 @@
         <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>319</v>
+        <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>82</v>
+        <v>320</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8504,7 +8493,7 @@
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>82</v>
@@ -8513,10 +8502,10 @@
         <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>198</v>
+        <v>110</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>323</v>
@@ -8551,11 +8540,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Y52" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="Z52" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8579,7 +8570,7 @@
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>82</v>
@@ -8588,16 +8579,16 @@
         <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>82</v>
+        <v>328</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>327</v>
+        <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8605,10 +8596,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8625,22 +8616,22 @@
         <v>82</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>110</v>
+        <v>332</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8666,13 +8657,13 @@
         <v>82</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>191</v>
+        <v>82</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>333</v>
+        <v>82</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>334</v>
+        <v>82</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>82</v>
@@ -8690,7 +8681,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8705,7 +8696,7 @@
         <v>102</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>335</v>
+        <v>82</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>82</v>
@@ -8714,7 +8705,7 @@
         <v>336</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>337</v>
+        <v>82</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8722,10 +8713,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8742,23 +8733,21 @@
         <v>82</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="M54" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>342</v>
-      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -8807,7 +8796,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8828,7 +8817,7 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>82</v>
@@ -8839,10 +8828,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8850,7 +8839,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>90</v>
@@ -8865,15 +8854,17 @@
         <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -8898,34 +8889,32 @@
         <v>82</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>82</v>
+        <v>301</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>82</v>
+        <v>346</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>82</v>
+        <v>347</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="AC55" s="2"/>
       <c r="AD55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>82</v>
+        <v>349</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>90</v>
@@ -8937,29 +8926,31 @@
         <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>82</v>
+        <v>350</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>82</v>
+        <v>351</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>82</v>
+        <v>353</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>82</v>
+        <v>354</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="D56" t="s" s="2">
         <v>82</v>
       </c>
@@ -8980,16 +8971,16 @@
         <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9015,29 +9006,31 @@
         <v>82</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>308</v>
+        <v>114</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AC56" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>356</v>
+        <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>90</v>
@@ -9052,19 +9045,19 @@
         <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="57">
@@ -9072,11 +9065,9 @@
         <v>362</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
         <v>82</v>
       </c>
@@ -9097,7 +9088,7 @@
         <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>198</v>
+        <v>363</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>364</v>
@@ -9132,13 +9123,13 @@
         <v>82</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>367</v>
+        <v>82</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>368</v>
+        <v>82</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>82</v>
@@ -9156,7 +9147,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>90</v>
@@ -9171,27 +9162,27 @@
         <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>361</v>
+        <v>371</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9199,7 +9190,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>90</v>
@@ -9211,19 +9202,19 @@
         <v>82</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9273,10 +9264,10 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>90</v>
@@ -9288,27 +9279,27 @@
         <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>375</v>
+        <v>295</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9319,7 +9310,7 @@
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>82</v>
@@ -9331,16 +9322,16 @@
         <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9390,13 +9381,13 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>82</v>
@@ -9405,19 +9396,19 @@
         <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>302</v>
+        <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>387</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60">
@@ -9433,10 +9424,10 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>82</v>
@@ -9445,7 +9436,7 @@
         <v>82</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>389</v>
@@ -9456,9 +9447,7 @@
       <c r="M60" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="N60" t="s" s="2">
-        <v>392</v>
-      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9513,7 +9502,7 @@
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>82</v>
@@ -9522,27 +9511,27 @@
         <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>394</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>82</v>
+        <v>396</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9550,7 +9539,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>90</v>
@@ -9565,15 +9554,17 @@
         <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9622,7 +9613,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9637,27 +9628,27 @@
         <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>400</v>
+        <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>401</v>
+        <v>369</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>402</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>403</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9677,19 +9668,19 @@
         <v>82</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="M62" t="s" s="2">
-        <v>407</v>
-      </c>
       <c r="N62" t="s" s="2">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9739,7 +9730,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9754,13 +9745,13 @@
         <v>102</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>409</v>
@@ -9794,19 +9785,19 @@
         <v>82</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9832,13 +9823,11 @@
         <v>82</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="Y63" s="2"/>
       <c r="Z63" t="s" s="2">
-        <v>82</v>
+        <v>414</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>82</v>
@@ -9871,16 +9860,16 @@
         <v>102</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>416</v>
+        <v>82</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9911,19 +9900,19 @@
         <v>82</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>198</v>
+        <v>418</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>420</v>
+        <v>385</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9949,11 +9938,13 @@
         <v>82</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="Y64" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z64" t="s" s="2">
-        <v>421</v>
+        <v>82</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>82</v>
@@ -9986,16 +9977,16 @@
         <v>102</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -10003,10 +9994,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10017,7 +10008,7 @@
         <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>82</v>
@@ -10029,16 +10020,16 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -10064,13 +10055,13 @@
         <v>82</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>82</v>
+        <v>301</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>82</v>
+        <v>427</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>82</v>
+        <v>428</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>82</v>
@@ -10088,13 +10079,13 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>82</v>
@@ -10103,27 +10094,27 @@
         <v>102</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>82</v>
+        <v>429</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>82</v>
+        <v>430</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>82</v>
+        <v>433</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10146,16 +10137,16 @@
         <v>82</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>198</v>
+        <v>435</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10181,31 +10172,31 @@
         <v>82</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>308</v>
+        <v>82</v>
       </c>
       <c r="Y66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF66" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10220,19 +10211,19 @@
         <v>102</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>437</v>
+        <v>295</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>440</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67">
@@ -10260,7 +10251,7 @@
         <v>82</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>442</v>
@@ -10340,13 +10331,13 @@
         <v>446</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>302</v>
+        <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>447</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>439</v>
+        <v>82</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10380,16 +10371,16 @@
         <v>91</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="N68" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10454,13 +10445,13 @@
         <v>102</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>453</v>
+        <v>82</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>82</v>
@@ -10471,10 +10462,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10497,16 +10488,16 @@
         <v>91</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>104</v>
+        <v>452</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>457</v>
+        <v>385</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10556,7 +10547,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10571,13 +10562,13 @@
         <v>102</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>82</v>
+        <v>455</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>82</v>
@@ -10588,10 +10579,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10602,7 +10593,7 @@
         <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>82</v>
@@ -10614,18 +10605,18 @@
         <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="M70" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>82</v>
       </c>
@@ -10673,13 +10664,13 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>82</v>
@@ -10688,13 +10679,13 @@
         <v>102</v>
       </c>
       <c r="AK70" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>82</v>
@@ -10705,10 +10696,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10728,21 +10719,21 @@
         <v>82</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>467</v>
-      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>82</v>
       </c>
@@ -10766,13 +10757,13 @@
         <v>82</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>82</v>
+        <v>301</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>82</v>
+        <v>467</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>82</v>
+        <v>468</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>82</v>
@@ -10790,7 +10781,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10805,7 +10796,7 @@
         <v>102</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>468</v>
+        <v>82</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>82</v>
@@ -10836,7 +10827,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>82</v>
@@ -10848,16 +10839,16 @@
         <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>198</v>
+        <v>471</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>473</v>
+        <v>385</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10883,13 +10874,13 @@
         <v>82</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>308</v>
+        <v>82</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>474</v>
+        <v>82</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>475</v>
+        <v>82</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>82</v>
@@ -10913,7 +10904,7 @@
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>82</v>
@@ -10922,13 +10913,13 @@
         <v>102</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>82</v>
+        <v>474</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>82</v>
@@ -10939,10 +10930,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10965,16 +10956,16 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11024,7 +11015,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11042,10 +11033,10 @@
         <v>481</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>82</v>
+        <v>482</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>82</v>
@@ -11056,10 +11047,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11082,10 +11073,10 @@
         <v>82</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>486</v>
@@ -11141,7 +11132,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11156,13 +11147,13 @@
         <v>102</v>
       </c>
       <c r="AK74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>82</v>
@@ -11173,10 +11164,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11187,7 +11178,7 @@
         <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>82</v>
@@ -11199,17 +11190,15 @@
         <v>82</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="L75" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>494</v>
-      </c>
+      <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11258,13 +11247,13 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>82</v>
@@ -11276,10 +11265,10 @@
         <v>82</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>82</v>
+        <v>493</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>82</v>
@@ -11290,10 +11279,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11316,13 +11305,13 @@
         <v>82</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11373,7 +11362,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>496</v>
+        <v>170</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11385,16 +11374,16 @@
         <v>82</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>500</v>
+        <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>501</v>
+        <v>171</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>82</v>
@@ -11405,10 +11394,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11419,7 +11408,7 @@
         <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>82</v>
@@ -11431,13 +11420,13 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11476,16 +11465,14 @@
         <v>82</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="AC77" s="2"/>
       <c r="AD77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>177</v>
@@ -11494,13 +11481,13 @@
         <v>80</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>82</v>
@@ -11509,7 +11496,7 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>178</v>
+        <v>82</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>82</v>
@@ -11520,12 +11507,14 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="C78" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>502</v>
+      </c>
       <c r="D78" t="s" s="2">
         <v>82</v>
       </c>
@@ -11546,13 +11535,13 @@
         <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>135</v>
+        <v>503</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>136</v>
+        <v>504</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>137</v>
+        <v>505</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11591,17 +11580,19 @@
         <v>82</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AC78" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11610,7 +11601,7 @@
         <v>81</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>82</v>
+        <v>506</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>141</v>
@@ -11633,13 +11624,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>82</v>
@@ -11649,7 +11640,7 @@
         <v>80</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>82</v>
@@ -11661,13 +11652,13 @@
         <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11718,7 +11709,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11727,7 +11718,7 @@
         <v>81</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>147</v>
+        <v>506</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>141</v>
@@ -11750,35 +11741,33 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="C80" t="s" s="2">
         <v>512</v>
       </c>
+      <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>82</v>
+        <v>513</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>513</v>
+        <v>136</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>514</v>
@@ -11786,8 +11775,12 @@
       <c r="M80" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
+      <c r="N80" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>82</v>
       </c>
@@ -11835,7 +11828,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>184</v>
+        <v>516</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11844,7 +11837,7 @@
         <v>81</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>141</v>
@@ -11856,7 +11849,7 @@
         <v>82</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>82</v>
@@ -11867,33 +11860,33 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>517</v>
+        <v>82</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>135</v>
+        <v>490</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>518</v>
@@ -11902,11 +11895,9 @@
         <v>519</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>82</v>
       </c>
@@ -11954,19 +11945,19 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>82</v>
@@ -11975,7 +11966,7 @@
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>133</v>
+        <v>521</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>82</v>
@@ -11986,10 +11977,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12012,17 +12003,15 @@
         <v>82</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>497</v>
+        <v>167</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>522</v>
+        <v>168</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>524</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>82</v>
@@ -12071,7 +12060,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>521</v>
+        <v>170</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12083,7 +12072,7 @@
         <v>82</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>82</v>
@@ -12092,7 +12081,7 @@
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>525</v>
+        <v>171</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>82</v>
@@ -12103,21 +12092,21 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>82</v>
@@ -12129,15 +12118,17 @@
         <v>82</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L83" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N83" s="2"/>
+      <c r="N83" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>82</v>
@@ -12192,13 +12183,13 @@
         <v>80</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>82</v>
@@ -12207,7 +12198,7 @@
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>82</v>
@@ -12218,14 +12209,14 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>149</v>
+        <v>513</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12238,24 +12229,26 @@
         <v>82</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>181</v>
+        <v>514</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>182</v>
+        <v>515</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O84" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
       </c>
@@ -12303,7 +12296,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>184</v>
+        <v>516</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12324,7 +12317,7 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>82</v>
@@ -12335,46 +12328,44 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>517</v>
+        <v>82</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>135</v>
+        <v>526</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>82</v>
       </c>
@@ -12422,19 +12413,19 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>82</v>
+        <v>506</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>141</v>
+        <v>530</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>82</v>
@@ -12443,21 +12434,21 @@
         <v>82</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>133</v>
+        <v>531</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>82</v>
+        <v>532</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12480,16 +12471,16 @@
         <v>82</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12539,7 +12530,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12548,10 +12539,10 @@
         <v>90</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>534</v>
+        <v>102</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>82</v>
@@ -12560,21 +12551,21 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>536</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12597,7 +12588,7 @@
         <v>82</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="L87" t="s" s="2">
         <v>539</v>
@@ -12606,7 +12597,7 @@
         <v>540</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12656,7 +12647,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12677,7 +12668,7 @@
         <v>82</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>82</v>
@@ -12688,10 +12679,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12714,18 +12705,20 @@
         <v>82</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>538</v>
+        <v>223</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="N88" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="O88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>545</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
       </c>
@@ -12773,7 +12766,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -12791,10 +12784,10 @@
         <v>82</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>82</v>
+        <v>546</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>82</v>
@@ -12805,10 +12798,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12831,20 +12824,16 @@
         <v>82</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>230</v>
+        <v>167</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>546</v>
+        <v>168</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>549</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>82</v>
       </c>
@@ -12892,7 +12881,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>545</v>
+        <v>170</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -12904,16 +12893,16 @@
         <v>82</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>550</v>
+        <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>551</v>
+        <v>171</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>82</v>
@@ -12924,21 +12913,21 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>82</v>
@@ -12950,15 +12939,17 @@
         <v>82</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L90" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N90" s="2"/>
+      <c r="N90" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>82</v>
@@ -12995,16 +12986,16 @@
         <v>82</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="AC90" t="s" s="2">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="AD90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>177</v>
@@ -13013,13 +13004,13 @@
         <v>80</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>82</v>
@@ -13028,7 +13019,7 @@
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>82</v>
@@ -13039,21 +13030,21 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>82</v>
@@ -13062,19 +13053,19 @@
         <v>82</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>135</v>
+        <v>389</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>181</v>
+        <v>551</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>182</v>
+        <v>552</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>152</v>
+        <v>553</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -13112,31 +13103,31 @@
         <v>82</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC91" t="s" s="2">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="AD91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>184</v>
+        <v>554</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>82</v>
+        <v>555</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>82</v>
@@ -13145,21 +13136,21 @@
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>178</v>
+        <v>556</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>82</v>
+        <v>557</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13182,22 +13173,24 @@
         <v>91</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>562</v>
+      </c>
       <c r="R92" t="s" s="2">
         <v>82</v>
       </c>
@@ -13241,7 +13234,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13250,7 +13243,7 @@
         <v>90</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>102</v>
@@ -13262,21 +13255,21 @@
         <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13296,72 +13289,70 @@
         <v>82</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>396</v>
+        <v>567</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q93" t="s" s="2">
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF93" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="R93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>567</v>
-      </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
       </c>
@@ -13369,7 +13360,7 @@
         <v>90</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>559</v>
+        <v>82</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>102</v>
@@ -13378,24 +13369,24 @@
         <v>82</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>82</v>
+        <v>571</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>569</v>
+        <v>573</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13418,16 +13409,16 @@
         <v>82</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>571</v>
+        <v>526</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>574</v>
+        <v>529</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13477,7 +13468,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13486,33 +13477,33 @@
         <v>90</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>82</v>
+        <v>506</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>102</v>
+        <v>530</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>575</v>
+        <v>82</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>576</v>
+        <v>531</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>577</v>
+        <v>532</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13535,16 +13526,16 @@
         <v>82</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13594,7 +13585,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13603,33 +13594,33 @@
         <v>90</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>534</v>
+        <v>102</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>82</v>
+        <v>581</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>535</v>
+        <v>582</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>536</v>
+        <v>82</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13652,17 +13643,15 @@
         <v>82</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>538</v>
+        <v>167</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>582</v>
+        <v>168</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>584</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>82</v>
@@ -13711,7 +13700,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>581</v>
+        <v>170</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -13723,16 +13712,16 @@
         <v>82</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>585</v>
+        <v>82</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>586</v>
+        <v>171</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>82</v>
@@ -13743,21 +13732,21 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>82</v>
@@ -13769,15 +13758,17 @@
         <v>82</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L97" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N97" s="2"/>
+      <c r="N97" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>82</v>
@@ -13814,16 +13805,16 @@
         <v>82</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="AC97" t="s" s="2">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="AD97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>177</v>
@@ -13832,13 +13823,13 @@
         <v>80</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>82</v>
@@ -13847,7 +13838,7 @@
         <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>82</v>
@@ -13858,21 +13849,21 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>82</v>
@@ -13881,21 +13872,23 @@
         <v>82</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>135</v>
+        <v>586</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>181</v>
+        <v>587</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>182</v>
+        <v>588</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O98" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>590</v>
+      </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
       </c>
@@ -13931,31 +13924,31 @@
         <v>82</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC98" t="s" s="2">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="AD98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>184</v>
+        <v>591</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>82</v>
@@ -13964,21 +13957,21 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>178</v>
+        <v>592</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>82</v>
+        <v>593</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13995,30 +13988,30 @@
         <v>82</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J99" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>590</v>
+        <v>110</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>593</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>598</v>
+      </c>
       <c r="R99" t="s" s="2">
         <v>82</v>
       </c>
@@ -14038,13 +14031,13 @@
         <v>82</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>82</v>
+        <v>184</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>82</v>
+        <v>599</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>82</v>
+        <v>600</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>82</v>
@@ -14062,7 +14055,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14083,21 +14076,21 @@
         <v>82</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14114,32 +14107,30 @@
         <v>82</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J100" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q100" t="s" s="2">
-        <v>602</v>
-      </c>
+      <c r="Q100" s="2"/>
       <c r="R100" t="s" s="2">
-        <v>82</v>
+        <v>608</v>
       </c>
       <c r="S100" t="s" s="2">
         <v>82</v>
@@ -14157,13 +14148,13 @@
         <v>82</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>191</v>
+        <v>82</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>603</v>
+        <v>82</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>604</v>
+        <v>82</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>82</v>
@@ -14181,7 +14172,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14202,21 +14193,21 @@
         <v>82</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14239,24 +14230,24 @@
         <v>91</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>174</v>
+        <v>104</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>82</v>
@@ -14298,7 +14289,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14307,7 +14298,7 @@
         <v>90</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>82</v>
+        <v>618</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>102</v>
@@ -14319,21 +14310,21 @@
         <v>82</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14356,24 +14347,26 @@
         <v>91</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="N102" s="2"/>
+        <v>622</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>623</v>
+      </c>
       <c r="O102" t="s" s="2">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q102" s="2"/>
       <c r="R102" t="s" s="2">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="S102" t="s" s="2">
         <v>82</v>
@@ -14415,7 +14408,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14424,7 +14417,7 @@
         <v>90</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>622</v>
+        <v>82</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>102</v>
@@ -14436,21 +14429,21 @@
         <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14470,29 +14463,27 @@
         <v>82</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>110</v>
+        <v>629</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>628</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" t="s" s="2">
-        <v>629</v>
+        <v>82</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>82</v>
@@ -14534,7 +14525,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14555,21 +14546,21 @@
         <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>82</v>
+        <v>422</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>615</v>
+        <v>82</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14592,7 +14583,7 @@
         <v>82</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>633</v>
+        <v>490</v>
       </c>
       <c r="L104" t="s" s="2">
         <v>634</v>
@@ -14600,9 +14591,7 @@
       <c r="M104" t="s" s="2">
         <v>635</v>
       </c>
-      <c r="N104" t="s" s="2">
-        <v>392</v>
-      </c>
+      <c r="N104" s="2"/>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>82</v>
@@ -14651,7 +14640,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -14669,13 +14658,13 @@
         <v>82</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>82</v>
+        <v>636</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>429</v>
+        <v>82</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>82</v>
@@ -14683,10 +14672,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14709,13 +14698,13 @@
         <v>82</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>497</v>
+        <v>167</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>638</v>
+        <v>168</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>639</v>
+        <v>169</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -14766,7 +14755,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>637</v>
+        <v>170</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -14778,16 +14767,16 @@
         <v>82</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>640</v>
+        <v>82</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>641</v>
+        <v>171</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>82</v>
@@ -14798,21 +14787,21 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>82</v>
@@ -14824,15 +14813,17 @@
         <v>82</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L106" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N106" s="2"/>
+      <c r="N106" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -14887,13 +14878,13 @@
         <v>80</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>82</v>
@@ -14902,7 +14893,7 @@
         <v>82</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>82</v>
@@ -14913,14 +14904,14 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>149</v>
+        <v>513</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -14933,24 +14924,26 @@
         <v>82</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>181</v>
+        <v>514</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>182</v>
+        <v>515</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O107" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P107" t="s" s="2">
         <v>82</v>
       </c>
@@ -14998,7 +14991,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>184</v>
+        <v>516</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15019,7 +15012,7 @@
         <v>82</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>82</v>
@@ -15030,46 +15023,44 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>517</v>
+        <v>82</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>518</v>
+        <v>634</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>519</v>
+        <v>642</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>643</v>
+      </c>
+      <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>82</v>
       </c>
@@ -15093,13 +15084,11 @@
         <v>82</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Y108" s="2"/>
       <c r="Z108" t="s" s="2">
-        <v>82</v>
+        <v>644</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>82</v>
@@ -15117,42 +15106,42 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>520</v>
+        <v>641</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>82</v>
+        <v>636</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>133</v>
+        <v>645</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO108" t="s" s="2">
-        <v>82</v>
+        <v>646</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15160,7 +15149,7 @@
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>90</v>
@@ -15175,16 +15164,16 @@
         <v>82</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15210,11 +15199,13 @@
         <v>82</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Y109" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>651</v>
+      </c>
       <c r="Z109" t="s" s="2">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>82</v>
@@ -15232,10 +15223,10 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>90</v>
@@ -15250,24 +15241,24 @@
         <v>82</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>640</v>
+        <v>653</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO109" t="s" s="2">
-        <v>650</v>
+        <v>655</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15290,16 +15281,16 @@
         <v>82</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>198</v>
+        <v>657</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>654</v>
+        <v>385</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -15325,31 +15316,31 @@
         <v>82</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>308</v>
+        <v>82</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>655</v>
+        <v>82</v>
       </c>
       <c r="Z110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF110" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>651</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15364,38 +15355,38 @@
         <v>102</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>82</v>
+        <v>660</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>659</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>82</v>
+        <v>663</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>82</v>
@@ -15407,16 +15398,16 @@
         <v>82</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>392</v>
+        <v>667</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -15466,13 +15457,13 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>82</v>
@@ -15481,13 +15472,13 @@
         <v>102</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>664</v>
+        <v>82</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>657</v>
+        <v>82</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>82</v>
@@ -15498,14 +15489,14 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>667</v>
+        <v>82</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -15524,16 +15515,16 @@
         <v>82</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -15583,7 +15574,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -15598,135 +15589,18 @@
         <v>102</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>82</v>
+        <v>674</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO112" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="C113" s="2"/>
-      <c r="D113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E113" s="2"/>
-      <c r="F113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="O113" s="2"/>
-      <c r="P113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q113" s="2"/>
-      <c r="R113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO113" t="s" s="2">
         <v>82</v>
       </c>
     </row>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-medicationrequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4186" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4149" uniqueCount="667">
   <si>
     <t>Property</t>
   </si>
@@ -1099,17 +1099,10 @@
 また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
   </si>
   <si>
-    <t>注文できる物質または製品を識別するコード化された概念。 / A coded concept identifying substance or product that can be ordered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
+    <t>処方する製剤を表すコード。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -1131,27 +1124,6 @@
   </si>
   <si>
     <t>RXE-2-Give Code / RXO-1-Requested Give Code / RXC-2-Component Code</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x]:medicationCodeableConcept</t>
-  </si>
-  <si>
-    <t>medicationCodeableConcept</t>
-  </si>
-  <si>
-    <t>服用する薬 / Medication to be taken</t>
-  </si>
-  <si>
-    <t>要求されている薬を特定します。これは、薬物の詳細である可能性のある薬物療法を表すリソースへのリンク、または単に既知の薬物のリストから薬物を識別するコードを運ぶ属性です。 / Identifies the medication being requested. This is a link to a resource that represents the medication which may be the details of the medication or simply an attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>コードのみが指定されている場合、特定の製品のコードである必要があります。より多くの情報が必要な場合は、投薬リソースの使用をお勧めします。たとえば、フォームまたはロット番号が必要な場合、または薬物療法が複合または延長された場合は、薬リソースを参照する必要があります。 / If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the Medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource.</t>
-  </si>
-  <si>
-    <t>処方する製剤を表すコード。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
     <t>MedicationRequest.subject</t>
@@ -2441,7 +2413,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO112"/>
+  <dimension ref="A1:AO111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2452,7 +2424,7 @@
   <cols>
     <col min="1" max="1" width="69.44921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="69.44921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.47265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="24.5703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -8889,7 +8861,7 @@
         <v>82</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>301</v>
+        <v>114</v>
       </c>
       <c r="Y55" t="s" s="2">
         <v>346</v>
@@ -8901,14 +8873,16 @@
         <v>82</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="AC55" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>349</v>
+        <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>342</v>
@@ -8926,31 +8900,29 @@
         <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AO55" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>354</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
         <v>82</v>
       </c>
@@ -8971,16 +8943,16 @@
         <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>191</v>
+        <v>354</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N56" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9006,13 +8978,13 @@
         <v>82</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>360</v>
+        <v>82</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>361</v>
+        <v>82</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>82</v>
@@ -9030,7 +9002,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>90</v>
@@ -9045,27 +9017,27 @@
         <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9073,7 +9045,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>90</v>
@@ -9085,19 +9057,19 @@
         <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9147,10 +9119,10 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>90</v>
@@ -9162,10 +9134,10 @@
         <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>369</v>
@@ -9193,7 +9165,7 @@
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>82</v>
@@ -9270,7 +9242,7 @@
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>82</v>
@@ -9282,24 +9254,24 @@
         <v>377</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>295</v>
+        <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>378</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>380</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9307,10 +9279,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>82</v>
@@ -9319,20 +9291,18 @@
         <v>82</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>385</v>
-      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>82</v>
@@ -9381,13 +9351,13 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>82</v>
@@ -9396,19 +9366,19 @@
         <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AL59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AO59" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="60">
@@ -9424,7 +9394,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>90</v>
@@ -9447,7 +9417,9 @@
       <c r="M60" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="N60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9514,24 +9486,24 @@
         <v>392</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AM60" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="AO60" t="s" s="2">
-        <v>396</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9551,19 +9523,19 @@
         <v>82</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9613,7 +9585,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9628,16 +9600,16 @@
         <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>369</v>
+        <v>399</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9645,10 +9617,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9668,19 +9640,19 @@
         <v>82</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N62" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9706,13 +9678,11 @@
         <v>82</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="Y62" s="2"/>
       <c r="Z62" t="s" s="2">
-        <v>82</v>
+        <v>405</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>82</v>
@@ -9730,7 +9700,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9745,16 +9715,16 @@
         <v>102</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="AL62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>408</v>
-      </c>
       <c r="AN62" t="s" s="2">
-        <v>409</v>
+        <v>82</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9762,10 +9732,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9785,19 +9755,19 @@
         <v>82</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>191</v>
+        <v>409</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="M63" t="s" s="2">
-        <v>412</v>
-      </c>
       <c r="N63" t="s" s="2">
-        <v>413</v>
+        <v>376</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9823,11 +9793,13 @@
         <v>82</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="Y63" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z63" t="s" s="2">
-        <v>414</v>
+        <v>82</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>82</v>
@@ -9845,7 +9817,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9860,16 +9832,16 @@
         <v>102</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>415</v>
+        <v>82</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>82</v>
+        <v>413</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9877,10 +9849,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9891,7 +9863,7 @@
         <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>82</v>
@@ -9903,16 +9875,16 @@
         <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>418</v>
+        <v>191</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>385</v>
+        <v>417</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9938,13 +9910,13 @@
         <v>82</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>82</v>
+        <v>301</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>82</v>
+        <v>418</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>82</v>
+        <v>419</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>82</v>
@@ -9962,13 +9934,13 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>82</v>
@@ -9977,27 +9949,27 @@
         <v>102</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>82</v>
+        <v>420</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>82</v>
+        <v>421</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>82</v>
+        <v>424</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10020,16 +9992,16 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>191</v>
+        <v>426</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -10055,13 +10027,13 @@
         <v>82</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>301</v>
+        <v>82</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>427</v>
+        <v>82</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>428</v>
+        <v>82</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>82</v>
@@ -10079,7 +10051,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10094,27 +10066,27 @@
         <v>102</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>430</v>
+        <v>295</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>431</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>433</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10134,19 +10106,19 @@
         <v>82</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10196,7 +10168,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10211,16 +10183,16 @@
         <v>102</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>295</v>
+        <v>82</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>432</v>
+        <v>82</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
@@ -10228,10 +10200,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10254,16 +10226,16 @@
         <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>442</v>
+        <v>104</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10313,7 +10285,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10328,13 +10300,13 @@
         <v>102</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>446</v>
+        <v>82</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>82</v>
@@ -10345,10 +10317,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10371,16 +10343,16 @@
         <v>91</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>104</v>
+        <v>443</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>450</v>
+        <v>376</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10430,7 +10402,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10445,7 +10417,7 @@
         <v>102</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>82</v>
+        <v>446</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>82</v>
@@ -10462,10 +10434,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10476,7 +10448,7 @@
         <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>82</v>
@@ -10488,18 +10460,18 @@
         <v>91</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>452</v>
+        <v>149</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="O69" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>82</v>
       </c>
@@ -10547,13 +10519,13 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>82</v>
@@ -10562,13 +10534,13 @@
         <v>102</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>82</v>
@@ -10579,10 +10551,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10602,21 +10574,21 @@
         <v>82</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>460</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>82</v>
       </c>
@@ -10640,13 +10612,13 @@
         <v>82</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>82</v>
+        <v>301</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>82</v>
+        <v>458</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>82</v>
+        <v>459</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>82</v>
@@ -10664,7 +10636,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10679,13 +10651,13 @@
         <v>102</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>461</v>
+        <v>82</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>82</v>
@@ -10696,10 +10668,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10710,7 +10682,7 @@
         <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>82</v>
@@ -10722,16 +10694,16 @@
         <v>82</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>191</v>
+        <v>462</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="M71" t="s" s="2">
-        <v>465</v>
-      </c>
       <c r="N71" t="s" s="2">
-        <v>466</v>
+        <v>376</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10757,13 +10729,13 @@
         <v>82</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>301</v>
+        <v>82</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>467</v>
+        <v>82</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>468</v>
+        <v>82</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>82</v>
@@ -10781,13 +10753,13 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>82</v>
@@ -10796,13 +10768,13 @@
         <v>102</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>82</v>
+        <v>465</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>82</v>
@@ -10813,10 +10785,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10839,16 +10811,16 @@
         <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="N72" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10898,7 +10870,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10913,13 +10885,13 @@
         <v>102</v>
       </c>
       <c r="AK72" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>82</v>
@@ -10930,10 +10902,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10956,16 +10928,16 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="N73" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11015,7 +10987,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11030,13 +11002,13 @@
         <v>102</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>481</v>
+        <v>82</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>482</v>
+        <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>82</v>
@@ -11047,10 +11019,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11061,7 +11033,7 @@
         <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>82</v>
@@ -11073,17 +11045,15 @@
         <v>82</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11132,13 +11102,13 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>82</v>
@@ -11150,10 +11120,10 @@
         <v>82</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>82</v>
+        <v>484</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>82</v>
@@ -11164,10 +11134,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11190,13 +11160,13 @@
         <v>82</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>490</v>
+        <v>167</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11247,7 +11217,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>489</v>
+        <v>170</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11259,16 +11229,16 @@
         <v>82</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>493</v>
+        <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>494</v>
+        <v>171</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>82</v>
@@ -11279,10 +11249,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11293,7 +11263,7 @@
         <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>82</v>
@@ -11305,13 +11275,13 @@
         <v>82</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11350,31 +11320,29 @@
         <v>82</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="AC76" s="2"/>
       <c r="AD76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>82</v>
@@ -11383,7 +11351,7 @@
         <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>171</v>
+        <v>82</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>82</v>
@@ -11394,12 +11362,14 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="C77" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>493</v>
+      </c>
       <c r="D77" t="s" s="2">
         <v>82</v>
       </c>
@@ -11420,13 +11390,13 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>136</v>
+        <v>494</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11465,14 +11435,16 @@
         <v>82</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AC77" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>177</v>
@@ -11484,7 +11456,7 @@
         <v>81</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>82</v>
+        <v>497</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>141</v>
@@ -11507,13 +11479,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>82</v>
@@ -11523,7 +11495,7 @@
         <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>82</v>
@@ -11535,13 +11507,13 @@
         <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11601,7 +11573,7 @@
         <v>81</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>141</v>
@@ -11624,44 +11596,46 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="C79" t="s" s="2">
-        <v>508</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>82</v>
+        <v>504</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>509</v>
+        <v>136</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+        <v>506</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
       </c>
@@ -11709,7 +11683,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>177</v>
+        <v>507</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11718,7 +11692,7 @@
         <v>81</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>506</v>
+        <v>82</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>141</v>
@@ -11730,7 +11704,7 @@
         <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>82</v>
@@ -11741,46 +11715,44 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>513</v>
+        <v>82</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>136</v>
+        <v>481</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>82</v>
       </c>
@@ -11828,19 +11800,19 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>82</v>
@@ -11849,7 +11821,7 @@
         <v>82</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>133</v>
+        <v>512</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>82</v>
@@ -11860,10 +11832,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11886,17 +11858,15 @@
         <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>490</v>
+        <v>167</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>518</v>
+        <v>168</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>520</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -11945,7 +11915,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>517</v>
+        <v>170</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -11957,7 +11927,7 @@
         <v>82</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>82</v>
@@ -11966,7 +11936,7 @@
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>521</v>
+        <v>171</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>82</v>
@@ -11977,21 +11947,21 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>82</v>
@@ -12003,15 +11973,17 @@
         <v>82</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>82</v>
@@ -12060,19 +12032,19 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>82</v>
@@ -12092,14 +12064,14 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>135</v>
+        <v>504</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -12112,24 +12084,26 @@
         <v>82</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K83" t="s" s="2">
         <v>136</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>137</v>
+        <v>505</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>174</v>
+        <v>506</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="O83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>82</v>
       </c>
@@ -12177,7 +12151,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>177</v>
+        <v>507</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12198,7 +12172,7 @@
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>82</v>
@@ -12209,46 +12183,44 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>513</v>
+        <v>82</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>136</v>
+        <v>517</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>82</v>
       </c>
@@ -12302,13 +12274,13 @@
         <v>80</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>82</v>
+        <v>497</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>141</v>
+        <v>521</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>82</v>
@@ -12317,21 +12289,21 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>133</v>
+        <v>522</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>82</v>
+        <v>523</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12354,16 +12326,16 @@
         <v>82</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="M85" t="s" s="2">
-        <v>528</v>
-      </c>
       <c r="N85" t="s" s="2">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12413,7 +12385,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12422,10 +12394,10 @@
         <v>90</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>506</v>
+        <v>82</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>530</v>
+        <v>102</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>82</v>
@@ -12434,21 +12406,21 @@
         <v>82</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>532</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12471,16 +12443,16 @@
         <v>82</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12530,7 +12502,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12551,7 +12523,7 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>82</v>
@@ -12562,10 +12534,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12588,18 +12560,20 @@
         <v>82</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="L87" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>540</v>
-      </c>
       <c r="N87" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="O87" s="2"/>
+        <v>535</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>536</v>
+      </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
       </c>
@@ -12647,7 +12621,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12665,10 +12639,10 @@
         <v>82</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>82</v>
+        <v>537</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>82</v>
@@ -12679,10 +12653,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12705,20 +12679,16 @@
         <v>82</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>223</v>
+        <v>167</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>542</v>
+        <v>168</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>545</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>82</v>
       </c>
@@ -12766,7 +12736,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>541</v>
+        <v>170</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -12778,16 +12748,16 @@
         <v>82</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>546</v>
+        <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>547</v>
+        <v>171</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>82</v>
@@ -12798,21 +12768,21 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>82</v>
@@ -12824,15 +12794,17 @@
         <v>82</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>82</v>
@@ -12869,31 +12841,31 @@
         <v>82</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="AD89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>82</v>
@@ -12913,21 +12885,21 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>82</v>
@@ -12936,19 +12908,19 @@
         <v>82</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>136</v>
+        <v>380</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>137</v>
+        <v>542</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>174</v>
+        <v>543</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>139</v>
+        <v>544</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -12986,31 +12958,31 @@
         <v>82</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="AC90" t="s" s="2">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="AD90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>177</v>
+        <v>545</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>82</v>
+        <v>546</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>82</v>
@@ -13019,21 +12991,21 @@
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>171</v>
+        <v>547</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>82</v>
+        <v>548</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13056,22 +13028,24 @@
         <v>91</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>552</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>553</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>553</v>
+      </c>
       <c r="R91" t="s" s="2">
         <v>82</v>
       </c>
@@ -13124,7 +13098,7 @@
         <v>90</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>102</v>
@@ -13136,21 +13110,21 @@
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO91" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO91" t="s" s="2">
-        <v>557</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13170,10 +13144,10 @@
         <v>82</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>389</v>
+        <v>558</v>
       </c>
       <c r="L92" t="s" s="2">
         <v>559</v>
@@ -13188,9 +13162,7 @@
       <c r="P92" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q92" t="s" s="2">
-        <v>562</v>
-      </c>
+      <c r="Q92" s="2"/>
       <c r="R92" t="s" s="2">
         <v>82</v>
       </c>
@@ -13234,7 +13206,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13243,7 +13215,7 @@
         <v>90</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>555</v>
+        <v>82</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>102</v>
@@ -13252,24 +13224,24 @@
         <v>82</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>82</v>
+        <v>562</v>
       </c>
       <c r="AM92" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO92" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>565</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13292,16 +13264,16 @@
         <v>82</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="L93" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>569</v>
-      </c>
       <c r="N93" t="s" s="2">
-        <v>570</v>
+        <v>520</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13351,7 +13323,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13360,33 +13332,33 @@
         <v>90</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>82</v>
+        <v>497</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>102</v>
+        <v>521</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>571</v>
+        <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>572</v>
+        <v>522</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>573</v>
+        <v>523</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13409,16 +13381,16 @@
         <v>82</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13468,7 +13440,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13477,33 +13449,33 @@
         <v>90</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>506</v>
+        <v>82</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>530</v>
+        <v>102</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>82</v>
+        <v>572</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>531</v>
+        <v>573</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>532</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13526,17 +13498,15 @@
         <v>82</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>534</v>
+        <v>167</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>578</v>
+        <v>168</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>580</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>82</v>
@@ -13585,7 +13555,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>577</v>
+        <v>170</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13597,16 +13567,16 @@
         <v>82</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>581</v>
+        <v>82</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>582</v>
+        <v>171</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>82</v>
@@ -13617,21 +13587,21 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>82</v>
@@ -13643,15 +13613,17 @@
         <v>82</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N96" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>82</v>
@@ -13688,31 +13660,31 @@
         <v>82</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="AC96" t="s" s="2">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="AD96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>82</v>
@@ -13732,21 +13704,21 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>82</v>
@@ -13755,21 +13727,23 @@
         <v>82</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>136</v>
+        <v>577</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>137</v>
+        <v>578</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>174</v>
+        <v>579</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O97" s="2"/>
+        <v>580</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>581</v>
+      </c>
       <c r="P97" t="s" s="2">
         <v>82</v>
       </c>
@@ -13805,31 +13779,31 @@
         <v>82</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="AC97" t="s" s="2">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="AD97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>177</v>
+        <v>582</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>82</v>
@@ -13838,13 +13812,13 @@
         <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>171</v>
+        <v>583</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>82</v>
+        <v>584</v>
       </c>
     </row>
     <row r="98">
@@ -13869,56 +13843,56 @@
         <v>82</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J98" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="N98" t="s" s="2">
+      <c r="P98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q98" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="O98" t="s" s="2">
+      <c r="R98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="Y98" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="P98" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q98" s="2"/>
-      <c r="R98" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="Z98" t="s" s="2">
-        <v>82</v>
+        <v>591</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>82</v>
@@ -13936,7 +13910,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -13957,21 +13931,21 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13988,32 +13962,30 @@
         <v>82</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J99" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q99" t="s" s="2">
-        <v>598</v>
-      </c>
+      <c r="Q99" s="2"/>
       <c r="R99" t="s" s="2">
-        <v>82</v>
+        <v>599</v>
       </c>
       <c r="S99" t="s" s="2">
         <v>82</v>
@@ -14031,31 +14003,31 @@
         <v>82</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>184</v>
+        <v>82</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>599</v>
+        <v>82</v>
       </c>
       <c r="Z99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF99" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14076,21 +14048,21 @@
         <v>82</v>
       </c>
       <c r="AM99" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO99" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO99" t="s" s="2">
-        <v>603</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14113,75 +14085,75 @@
         <v>91</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="L100" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>605</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>606</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q100" s="2"/>
       <c r="R100" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF100" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="S100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF100" t="s" s="2">
+      <c r="AG100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI100" t="s" s="2">
         <v>609</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>102</v>
@@ -14199,15 +14171,15 @@
         <v>82</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>611</v>
+        <v>602</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14230,15 +14202,17 @@
         <v>91</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="M101" t="s" s="2">
+      <c r="N101" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>615</v>
       </c>
@@ -14298,7 +14272,7 @@
         <v>90</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>618</v>
+        <v>82</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>102</v>
@@ -14310,21 +14284,21 @@
         <v>82</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>611</v>
+        <v>602</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14344,10 +14318,10 @@
         <v>82</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>110</v>
+        <v>620</v>
       </c>
       <c r="L102" t="s" s="2">
         <v>621</v>
@@ -14356,17 +14330,15 @@
         <v>622</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>624</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q102" s="2"/>
       <c r="R102" t="s" s="2">
-        <v>625</v>
+        <v>82</v>
       </c>
       <c r="S102" t="s" s="2">
         <v>82</v>
@@ -14408,7 +14380,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14429,21 +14401,21 @@
         <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>82</v>
+        <v>413</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>611</v>
+        <v>82</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14466,17 +14438,15 @@
         <v>82</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>629</v>
+        <v>481</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -14525,7 +14495,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14543,13 +14513,13 @@
         <v>82</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>82</v>
+        <v>627</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>422</v>
+        <v>82</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>82</v>
@@ -14557,10 +14527,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14583,13 +14553,13 @@
         <v>82</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>490</v>
+        <v>167</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>634</v>
+        <v>168</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>635</v>
+        <v>169</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -14640,7 +14610,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>633</v>
+        <v>170</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -14652,16 +14622,16 @@
         <v>82</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>636</v>
+        <v>82</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>637</v>
+        <v>171</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>82</v>
@@ -14672,21 +14642,21 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>82</v>
@@ -14698,15 +14668,17 @@
         <v>82</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N105" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>82</v>
@@ -14755,19 +14727,19 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>82</v>
@@ -14787,14 +14759,14 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>135</v>
+        <v>504</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -14807,24 +14779,26 @@
         <v>82</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K106" t="s" s="2">
         <v>136</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>137</v>
+        <v>505</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>174</v>
+        <v>506</v>
       </c>
       <c r="N106" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="O106" s="2"/>
+      <c r="O106" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
       </c>
@@ -14872,7 +14846,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>177</v>
+        <v>507</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -14893,7 +14867,7 @@
         <v>82</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>82</v>
@@ -14904,46 +14878,44 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>513</v>
+        <v>82</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>514</v>
+        <v>625</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>515</v>
+        <v>633</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>634</v>
+      </c>
+      <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>82</v>
       </c>
@@ -14967,13 +14939,11 @@
         <v>82</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Y107" s="2"/>
       <c r="Z107" t="s" s="2">
-        <v>82</v>
+        <v>635</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>82</v>
@@ -14991,42 +14961,42 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>516</v>
+        <v>632</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>82</v>
+        <v>627</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>133</v>
+        <v>636</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>82</v>
+        <v>637</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15034,7 +15004,7 @@
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>90</v>
@@ -15052,13 +15022,13 @@
         <v>191</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -15084,11 +15054,13 @@
         <v>82</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Y108" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>642</v>
+      </c>
       <c r="Z108" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>82</v>
@@ -15106,10 +15078,10 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>90</v>
@@ -15124,7 +15096,7 @@
         <v>82</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>645</v>
@@ -15164,16 +15136,16 @@
         <v>82</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>191</v>
+        <v>648</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>650</v>
+        <v>376</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15199,13 +15171,13 @@
         <v>82</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>301</v>
+        <v>82</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>651</v>
+        <v>82</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>652</v>
+        <v>82</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>82</v>
@@ -15238,38 +15210,38 @@
         <v>102</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>82</v>
+        <v>651</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO109" t="s" s="2">
-        <v>655</v>
+        <v>82</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>82</v>
+        <v>654</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>82</v>
@@ -15281,16 +15253,16 @@
         <v>82</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="L110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>658</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -15340,13 +15312,13 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>82</v>
@@ -15355,13 +15327,13 @@
         <v>102</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>660</v>
+        <v>82</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>653</v>
+        <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>82</v>
@@ -15372,14 +15344,14 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>663</v>
+        <v>82</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
@@ -15398,16 +15370,16 @@
         <v>82</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="N111" t="s" s="2">
         <v>664</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>667</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -15457,7 +15429,7 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -15472,135 +15444,18 @@
         <v>102</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>82</v>
+        <v>665</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO111" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="C112" s="2"/>
-      <c r="D112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E112" s="2"/>
-      <c r="F112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="O112" s="2"/>
-      <c r="P112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q112" s="2"/>
-      <c r="R112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ112" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO112" t="s" s="2">
         <v>82</v>
       </c>
     </row>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-medicationrequest.xlsx
@@ -907,7 +907,7 @@
     <t>MedicationRequest.status</t>
   </si>
   <si>
-    <t>オーダの現在の状態を示すコード。</t>
+    <t>オーダの現在の状態を示すコード</t>
   </si>
   <si>
     <t>オーダの現在の状態を示すコード。一般的には active か completed の状態であるだろう。</t>
